--- a/data/trans_orig/P14A35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8CC942-9570-4E35-8B5A-D18C439C958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6E171B-6B17-4A94-BD5A-5F4420E3A880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7308FB9B-B3D6-4939-B2E0-38E6543A181C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4654455-A18D-45EE-93CA-161DCF437D99}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -213,79 +213,79 @@
     <t>14,73%</t>
   </si>
   <si>
-    <t>66,15%</t>
+    <t>50,27%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>33,85%</t>
+    <t>49,73%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>53,74%</t>
+    <t>45,56%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>46,26%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>63,47%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>36,53%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D72A5-1A89-4D40-A265-D1EBDBD0BFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9ED82-72E9-464F-84A3-50D89AD0AB7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B803C3-BC1B-453E-8FCF-5A3EE3DA8330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CEB3FB-5D77-44E6-84E6-A33B7A575D33}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6E171B-6B17-4A94-BD5A-5F4420E3A880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BB1C7C-8D76-420E-80C0-D2C996677BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4654455-A18D-45EE-93CA-161DCF437D99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F2311D2-A7C2-49B2-9168-8DB9AFCA67B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,67 +96,67 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -165,43 +165,43 @@
     <t>61,69%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor menstrual en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población que recibe medicación o terapia por dolor menstrual en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -213,79 +213,79 @@
     <t>14,73%</t>
   </si>
   <si>
-    <t>50,27%</t>
+    <t>60,04%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>49,73%</t>
+    <t>39,96%</t>
   </si>
   <si>
     <t>81,69%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>53,9%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>46,1%</t>
   </si>
   <si>
     <t>63,47%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>36,53%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9ED82-72E9-464F-84A3-50D89AD0AB7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A22933-1415-400E-8AFB-0C2A5DCE3813}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CEB3FB-5D77-44E6-84E6-A33B7A575D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB1A981-F396-4905-9FF4-DFD527A00859}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
